--- a/Model_Card.xlsx
+++ b/Model_Card.xlsx
@@ -8,13 +8,129 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srilalitha/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC4CC60-7A19-2A49-AD8E-92EF83E65079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08C8563-CD9F-2043-AFAD-F456266C89F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{82814F85-E8D2-2E43-AB07-14323651B5C6}"/>
+    <workbookView xWindow="340" yWindow="480" windowWidth="28040" windowHeight="16460" xr2:uid="{82814F85-E8D2-2E43-AB07-14323651B5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_REPORT" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">FINAL_REPORT!$E$4:$E$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">FINAL_REPORT!$J$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">FINAL_REPORT!$E$5</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">FINAL_REPORT!$E$7</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">FINAL_REPORT!$E$8</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">FINAL_REPORT!$E$9</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">FINAL_REPORT!$P$10</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">FINAL_REPORT!$P$11</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">FINAL_REPORT!$P$12</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">FINAL_REPORT!$P$13</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">FINAL_REPORT!$P$3</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">FINAL_REPORT!$P$4</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">FINAL_REPORT!$P$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">FINAL_REPORT!$E$6</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">FINAL_REPORT!$P$6</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">FINAL_REPORT!$P$7</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">FINAL_REPORT!$P$8</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">FINAL_REPORT!$P$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">FINAL_REPORT!$E$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">FINAL_REPORT!$E$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">FINAL_REPORT!$E$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">FINAL_REPORT!$P$10</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">FINAL_REPORT!$P$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">FINAL_REPORT!$P$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">FINAL_REPORT!$P$13</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">FINAL_REPORT!$P$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">FINAL_REPORT!$J$4:$J$13</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">FINAL_REPORT!$P$4</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">FINAL_REPORT!$P$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">FINAL_REPORT!$P$6</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">FINAL_REPORT!$P$7</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">FINAL_REPORT!$P$8</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">FINAL_REPORT!$P$9</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">FINAL_REPORT!$E$10</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">FINAL_REPORT!$E$11</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">FINAL_REPORT!$E$12</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">FINAL_REPORT!$E$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">FINAL_REPORT!$E$2</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">FINAL_REPORT!$E$3</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">FINAL_REPORT!$E$4</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">FINAL_REPORT!$E$5</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">FINAL_REPORT!$E$6</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">FINAL_REPORT!$E$7</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">FINAL_REPORT!$E$8</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">FINAL_REPORT!$E$9</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">FINAL_REPORT!$P$10</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">FINAL_REPORT!$P$11</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">FINAL_REPORT!$P$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">FINAL_REPORT!$E$10</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">FINAL_REPORT!$P$13</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">FINAL_REPORT!$P$3</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">FINAL_REPORT!$P$4</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">FINAL_REPORT!$P$5</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">FINAL_REPORT!$P$6</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">FINAL_REPORT!$P$7</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">FINAL_REPORT!$P$8</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">FINAL_REPORT!$P$9</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">FINAL_REPORT!$E$10</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">FINAL_REPORT!$E$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">FINAL_REPORT!$E$11</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">FINAL_REPORT!$E$12</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">FINAL_REPORT!$E$13</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">FINAL_REPORT!$E$3</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">FINAL_REPORT!$E$4</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">FINAL_REPORT!$E$5</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">FINAL_REPORT!$E$6</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">FINAL_REPORT!$E$7</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">FINAL_REPORT!$E$8</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">FINAL_REPORT!$E$9</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">FINAL_REPORT!$P$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">FINAL_REPORT!$E$12</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">FINAL_REPORT!$P$11</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">FINAL_REPORT!$P$12</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">FINAL_REPORT!$P$13</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">FINAL_REPORT!$P$3</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">FINAL_REPORT!$P$4</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">FINAL_REPORT!$P$5</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">FINAL_REPORT!$P$6</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">FINAL_REPORT!$P$7</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">FINAL_REPORT!$P$8</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">FINAL_REPORT!$P$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">FINAL_REPORT!$E$13</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">FINAL_REPORT!$E$10</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">FINAL_REPORT!$E$11</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">FINAL_REPORT!$E$12</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">FINAL_REPORT!$E$13</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">FINAL_REPORT!$E$3</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">FINAL_REPORT!$E$4</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">FINAL_REPORT!$E$5</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">FINAL_REPORT!$E$6</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">FINAL_REPORT!$E$7</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">FINAL_REPORT!$E$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">FINAL_REPORT!$E$3</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">FINAL_REPORT!$E$9</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">FINAL_REPORT!$P$10</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">FINAL_REPORT!$P$11</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">FINAL_REPORT!$P$12</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">FINAL_REPORT!$P$13</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">FINAL_REPORT!$P$3</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">FINAL_REPORT!$P$4</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">FINAL_REPORT!$P$5</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">FINAL_REPORT!$P$6</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">FINAL_REPORT!$P$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">FINAL_REPORT!$E$4</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">FINAL_REPORT!$P$8</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">FINAL_REPORT!$P$9</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">FINAL_REPORT!$E$10</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">FINAL_REPORT!$E$11</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">FINAL_REPORT!$E$12</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">FINAL_REPORT!$E$13</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">FINAL_REPORT!$E$3</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">FINAL_REPORT!$E$4</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">FINAL_REPORT!$E$5</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">FINAL_REPORT!$E$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -249,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -419,6 +535,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -571,14 +698,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +737,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,13 +752,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -644,13 +770,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,27 +785,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,6 +826,2229 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Performance chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FINAL_REPORT!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FINAL_REPORT!$E$4:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Model Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simple CNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CNN FINE TUNED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN FINE TUNED
+with opt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VGG16 with 
+TRANSFER LEARNING</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VGG16 scratch code</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inception V3 with 
+Transfer Learning</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RESNET 50 with
+ Transfer Learning</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RESNET 50 with
+Scratch code</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MobileNetV2 with 
+Transfer Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FINAL_REPORT!$L$4:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F21-4C4F-B2C6-E9496F5E11EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FINAL_REPORT!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FINAL_REPORT!$E$4:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Model Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simple CNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CNN FINE TUNED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN FINE TUNED
+with opt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VGG16 with 
+TRANSFER LEARNING</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VGG16 scratch code</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inception V3 with 
+Transfer Learning</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RESNET 50 with
+ Transfer Learning</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RESNET 50 with
+Scratch code</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MobileNetV2 with 
+Transfer Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FINAL_REPORT!$L$4:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F21-4C4F-B2C6-E9496F5E11EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="42014144"/>
+        <c:axId val="42015824"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="42014144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42015824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42015824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42014144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FINAL_REPORT!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FINAL_REPORT!$E$4:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Model Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Simple CNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CNN FINE TUNED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN FINE TUNED
+with opt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VGG16 with 
+TRANSFER LEARNING</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VGG16 scratch code</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inception V3 with 
+Transfer Learning</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RESNET 50 with
+ Transfer Learning</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RESNET 50 with
+Scratch code</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MobileNetV2 with 
+Transfer Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FINAL_REPORT!$M$4:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2040999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7208000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0657000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42F6-8C4B-B53E-AF9B7666A2DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="94533328"/>
+        <c:axId val="48182112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94533328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48182112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48182112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94533328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="289">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33023944-6E94-1341-AE13-CB36FF1A88A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED840BC-9050-DE44-A797-4AB90A5065BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1000,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC70ED10-E90D-634B-AD25-BEDC68BA7060}">
   <dimension ref="D3:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,419 +3372,420 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L3" s="28"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="4:16" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="4:16" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <v>1E-3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>53.57</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>1.2040999999999999</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="4:16" ht="38" x14ac:dyDescent="0.2">
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>2</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>10</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>30.67</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>1.7208000000000001</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="4:16" ht="38" x14ac:dyDescent="0.2">
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>22.5</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>1.7254</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="57" x14ac:dyDescent="0.2">
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>200</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>2E-3</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>10</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="24">
         <v>57.95</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="28">
         <v>1.1153</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="4:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>1E-3</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>10</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>47.05</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>1.8325</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="4:16" ht="38" x14ac:dyDescent="0.2">
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>300</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>10</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>71.7</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>1.0657000000000001</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="4:16" ht="38" x14ac:dyDescent="0.2">
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>7</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>300</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>10</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>73.959999999999994</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>0.78</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="35" t="s">
+      <c r="P11" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="4:16" ht="38" x14ac:dyDescent="0.2">
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>100</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>1E-4</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>5</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>73.3</v>
       </c>
       <c r="M12" s="39">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="4:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>9</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>32</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>1E-4</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <v>50</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>98.48</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="38">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="36" t="s">
+      <c r="P13" s="35" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>